--- a/public/data/soil/soil_table_rwanda.xlsx
+++ b/public/data/soil/soil_table_rwanda.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -719,28 +719,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>20280.4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14684.2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2655.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>123.974</v>
+        <v>145.518</v>
       </c>
       <c r="I2" t="n">
-        <v>10.034</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.812</v>
+        <v>101.465</v>
       </c>
       <c r="K2" t="n">
-        <v>28.914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -754,28 +754,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>43790.2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>503.9</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>447.9</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>55.1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>279.75</v>
+        <v>347.361</v>
       </c>
       <c r="I3" t="n">
-        <v>4.02</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.434</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -789,25 +789,25 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>49537.1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5973.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>302.7</v>
+        <v>358.471</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.676</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -824,28 +824,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>7581.4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1260.9</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10110.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9463</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>69.827</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13.096</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>84.153</v>
+        <v>120.378</v>
       </c>
       <c r="K5" t="n">
-        <v>94.772</v>
+        <v>100.902</v>
       </c>
     </row>
     <row r="6">
@@ -859,25 +859,25 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>36489.7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2255.3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>253.23</v>
+        <v>207.461</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>14.698</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>38418</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>8337.4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>274.647</v>
+        <v>311.847</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.181</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -929,25 +929,25 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>39426</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1000.6</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>279.713</v>
+        <v>351.036</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.927</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -964,25 +964,25 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>34647.4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10300.1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>275.298</v>
+        <v>243.447</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>73.65</v>
+        <v>42.852</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -999,25 +999,25 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>43269.6</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1777.8</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>231.566</v>
+        <v>262.404</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.752</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>58546.2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>146.5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>318.94</v>
+        <v>221.45</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1069,25 +1069,25 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>43034.1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>56.3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5042.8</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>318.237</v>
+        <v>337.543</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>30.626</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>51204.8</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>55.2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2348.3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>292.415</v>
+        <v>332.726</v>
       </c>
       <c r="I13" t="n">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.607</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1139,25 +1139,25 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>40370</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3891.7</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>281.589</v>
+        <v>327.621</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.026</v>
+        <v>40.84</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1174,28 +1174,28 @@
         <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>18604</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1125.1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>51500.5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4452.4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>101.676</v>
+        <v>79.115</v>
       </c>
       <c r="I15" t="n">
-        <v>3.592</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>260.636</v>
+        <v>387.719</v>
       </c>
       <c r="K15" t="n">
-        <v>20.677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1209,28 +1209,28 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>40841.7</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36507.1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7900.8</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>323.312</v>
+        <v>343.647</v>
       </c>
       <c r="I16" t="n">
-        <v>0.325</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>169.676</v>
+        <v>206.053</v>
       </c>
       <c r="K16" t="n">
-        <v>25.293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1244,28 +1244,28 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>17736.7</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>969.4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>53264.7</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>16781.2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>138.826</v>
+        <v>87.661</v>
       </c>
       <c r="I17" t="n">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>226.494</v>
+        <v>258.228</v>
       </c>
       <c r="K17" t="n">
-        <v>51.889</v>
+        <v>15.229</v>
       </c>
     </row>
     <row r="18">
@@ -1279,28 +1279,28 @@
         <v>49</v>
       </c>
       <c r="D18" t="n">
-        <v>817.4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>433.3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>53498.7</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>14086.7</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.686</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.505</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>316.666</v>
+        <v>332.463</v>
       </c>
       <c r="K18" t="n">
-        <v>72.133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1314,28 +1314,28 @@
         <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>22326.3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1535.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>30039.6</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>406.8</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>175.87</v>
+        <v>165.227</v>
       </c>
       <c r="I19" t="n">
-        <v>7.923</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>191.614</v>
+        <v>182.157</v>
       </c>
       <c r="K19" t="n">
-        <v>2.147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1349,28 +1349,28 @@
         <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>18068.8</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3531.5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>46748.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>41352.6</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>96.812</v>
+        <v>45.178</v>
       </c>
       <c r="I20" t="n">
-        <v>20.45</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>293.009</v>
+        <v>320.948</v>
       </c>
       <c r="K20" t="n">
-        <v>245.209</v>
+        <v>253.426</v>
       </c>
     </row>
     <row r="21">
@@ -1384,28 +1384,28 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>34509</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>26.7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>11257.1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>270.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>270.322</v>
+        <v>274.336</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.627</v>
+        <v>31.115</v>
       </c>
       <c r="K21" t="n">
-        <v>0.668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1419,25 +1419,25 @@
         <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>46747.1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4893.2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>260.416</v>
+        <v>327.551</v>
       </c>
       <c r="I22" t="n">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.706</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>55</v>
       </c>
       <c r="D23" t="n">
-        <v>46438.9</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1840.1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>313.401</v>
+        <v>225.476</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.778</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1489,28 +1489,28 @@
         <v>56</v>
       </c>
       <c r="D24" t="n">
-        <v>16196.3</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>203.1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>14591.7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3648.6</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>114.033</v>
+        <v>126.147</v>
       </c>
       <c r="I24" t="n">
-        <v>1.653</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.377</v>
+        <v>197.585</v>
       </c>
       <c r="K24" t="n">
-        <v>39.383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1524,25 +1524,25 @@
         <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>42659.9</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1110.2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>311.284</v>
+        <v>399.396</v>
       </c>
       <c r="I25" t="n">
-        <v>1.211</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.365</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1559,28 +1559,28 @@
         <v>58</v>
       </c>
       <c r="D26" t="n">
-        <v>820.1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>628.1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8841</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14075.2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.718</v>
+        <v>55.988</v>
       </c>
       <c r="I26" t="n">
-        <v>5.673</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>79.044</v>
+        <v>96.457</v>
       </c>
       <c r="K26" t="n">
-        <v>152.231</v>
+        <v>150.512</v>
       </c>
     </row>
     <row r="27">
@@ -1594,28 +1594,28 @@
         <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>22790.6</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>95.1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>11342.6</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2162.1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>163.889</v>
+        <v>261.779</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.08</v>
+        <v>147.132</v>
       </c>
       <c r="K27" t="n">
-        <v>19.721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1629,28 +1629,28 @@
         <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>38454.9</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1607.7</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4315.2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1030.2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>268.756</v>
+        <v>257.907</v>
       </c>
       <c r="I28" t="n">
-        <v>20.78</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>13.432</v>
+        <v>12.041</v>
       </c>
       <c r="K28" t="n">
-        <v>12.327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1664,25 +1664,25 @@
         <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>24094.2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3582.5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>189.871</v>
+        <v>245.302</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3.615</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1699,25 +1699,25 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>6951.3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>3450</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>59.859</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19.297</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>7192.4</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1893.2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>56.248</v>
+        <v>95.539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>13.124</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_rwanda.xlsx
+++ b/public/data/soil/soil_table_rwanda.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -719,13 +719,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40375.2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>48410.3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>83717.8</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>116948.8</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8622.7</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>40505.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>16434.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>83312.4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7811.4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -894,13 +894,13 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>45106</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10348.9</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>79959</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41989.8</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11415.1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>69018.3</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>99629.8</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>81726.8</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>96420.9</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>52075.2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1489</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>21973.1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>51769</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49127.3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>54730</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="H16" t="n">
         <v>343.647</v>
@@ -1244,16 +1244,16 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>19473.5</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>94621.9</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>10188.6</v>
       </c>
       <c r="H17" t="n">
         <v>87.661</v>
@@ -1279,16 +1279,16 @@
         <v>49</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>5337.4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>114123.1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>8882.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1314,13 +1314,13 @@
         <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46523.1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>68538.5</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>13554.1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>54054.7</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>10838.2</v>
       </c>
       <c r="H20" t="n">
         <v>45.178</v>
@@ -1384,13 +1384,13 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>49517.2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>10365</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1419,13 +1419,13 @@
         <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>47100.9</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>918.9</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>55</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>23794.2</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1257.3</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1489,13 +1489,13 @@
         <v>56</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>8532.1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>23593.3</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>21930.1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>58</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3556.2</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4890.7</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8977.2</v>
       </c>
       <c r="H26" t="n">
         <v>55.988</v>
@@ -1594,16 +1594,16 @@
         <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>26020.2</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>11200.8</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6094.5</v>
       </c>
       <c r="H27" t="n">
         <v>261.779</v>
@@ -1629,16 +1629,16 @@
         <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>16054.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1894.5</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1257.3</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2718.6</v>
       </c>
       <c r="H28" t="n">
         <v>257.907</v>
@@ -1664,7 +1664,7 @@
         <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>57983.7</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1699,13 +1699,13 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2411.6</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1277.9</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9380</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
